--- a/Bases de Datos/Proyecto/Temporalización/Temporalización.xlsx
+++ b/Bases de Datos/Proyecto/Temporalización/Temporalización.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Grado-Superior-DAM\Bases de Datos\Proyecto\Temporalización\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/044a8a39323ca9b2/Grado-Superior-DAM/Bases de Datos/Proyecto/Temporalización/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852D60F3-A821-41F8-879F-6F2A9FE96BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{852D60F3-A821-41F8-879F-6F2A9FE96BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB033615-5628-438B-8F2B-BB8CD83FC54B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F22310CE-295C-45B1-B727-48807D35799A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>EDUARDO</t>
   </si>
@@ -81,13 +81,25 @@
   </si>
   <si>
     <t>Realización del modelo E-R del proyecto Inter modular</t>
+  </si>
+  <si>
+    <t>20 minutos</t>
+  </si>
+  <si>
+    <t>Realización de colsultas SQL (tipo agrupadas)</t>
+  </si>
+  <si>
+    <t>Realización de colsultas SQL (tipo multitabla)</t>
+  </si>
+  <si>
+    <t>Realización de colsultas SQL (tipo subconsultas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,16 +490,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,24 +513,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,18 +527,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA6EF3-E3CC-4747-8C7B-D83EC78EB6BB}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,11 +886,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -938,138 +947,192 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>44981</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+    <row r="13" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>44842</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C13" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+    <row r="14" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>44849</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+    <row r="15" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
         <v>44858</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C15" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+    <row r="16" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>44900</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="6">
+        <v>44982</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+    <row r="23" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
         <v>44842</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C23" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
+    <row r="24" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>44849</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C24" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
+    <row r="25" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <v>44858</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B25" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C25" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    <row r="26" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>44898</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C26" s="18" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>44977</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
